--- a/Python Working Notebooks/Production Tank Model results in Excel format/26MT excel results/26MT Deaeration/26 MT results - Deaeration Overall.xlsx
+++ b/Python Working Notebooks/Production Tank Model results in Excel format/26MT excel results/26MT Deaeration/26 MT results - Deaeration Overall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Thesis 2023\Capstone---CCT\Python Working Notebooks\Production Tank Model results in Excel format\26MT excel results\26MT Deaeration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87D9E4A-8743-4FCC-8BCC-88A0015FD9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A8923F-7256-4886-B75D-86725CBBD334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>Model</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Poor Performing Machine Model and Results  for Production Tanks  26MT Deaeration Phase</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -336,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -456,6 +459,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2075,7 +2087,7 @@
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
@@ -2124,7 +2136,7 @@
       <c r="J2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="44" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2159,7 +2171,9 @@
       <c r="J3" s="18">
         <v>1</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2179,8 +2193,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="23" style="37" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="37" customWidth="1"/>
     <col min="3" max="10" width="9.140625" style="37"/>
     <col min="11" max="11" width="21" style="37" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="37"/>
@@ -2237,10 +2251,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="38.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="45" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="35">

--- a/Python Working Notebooks/Production Tank Model results in Excel format/26MT excel results/26MT Deaeration/26 MT results - Deaeration Overall.xlsx
+++ b/Python Working Notebooks/Production Tank Model results in Excel format/26MT excel results/26MT Deaeration/26 MT results - Deaeration Overall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Thesis 2023\Capstone---CCT\Python Working Notebooks\Production Tank Model results in Excel format\26MT excel results\26MT Deaeration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A8923F-7256-4886-B75D-86725CBBD334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F49AC10-609E-4C03-B5FC-AC5A73FAB909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -389,9 +389,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -419,17 +416,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,6 +439,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,15 +460,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D30BEE9-A987-4EC0-BD42-596E701BB964}">
   <dimension ref="A1:AO37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:K14"/>
     </sheetView>
   </sheetViews>
@@ -993,11 +994,13 @@
     <col min="8" max="8" width="8.85546875" style="5" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="5" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" style="5" customWidth="1"/>
-    <col min="11" max="32" width="90.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="58.140625" style="2" customWidth="1"/>
+    <col min="12" max="32" width="90.85546875" style="2" customWidth="1"/>
     <col min="33" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15.75">
+      <c r="A1" s="47"/>
       <c r="B1" s="40" t="s">
         <v>34</v>
       </c>
@@ -1042,25 +1045,25 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="13" t="s">
@@ -1089,7 +1092,7 @@
       <c r="AF2" s="13"/>
     </row>
     <row r="3" spans="1:41" ht="15">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1101,7 +1104,7 @@
       <c r="D3" s="18">
         <v>4.7381674038438374E-31</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="30">
         <v>9.8471499999999994E-30</v>
       </c>
       <c r="F3" s="18">
@@ -1144,11 +1147,11 @@
       <c r="AG3" s="7"/>
     </row>
     <row r="4" spans="1:41" ht="15">
-      <c r="A4" s="25"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="31">
         <v>5.2516543945420237E-3</v>
       </c>
       <c r="D4" s="18">
@@ -1160,42 +1163,42 @@
       <c r="F4" s="18">
         <v>6.8008352142627081E-7</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="31">
         <v>0.99555697837860946</v>
       </c>
       <c r="H4" s="17">
         <v>0.99999920776252083</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="31">
         <v>0.99332730762501653</v>
       </c>
       <c r="J4" s="17">
         <v>0.9999980942922313</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
       <c r="AG4"/>
       <c r="AH4"/>
       <c r="AI4"/>
@@ -1207,58 +1210,58 @@
       <c r="AO4"/>
     </row>
     <row r="5" spans="1:41" ht="15">
-      <c r="A5" s="26"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="31">
         <v>0.84714316877728824</v>
       </c>
       <c r="D5" s="18">
         <v>8.4709000397834819E-5</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="31">
         <v>2.3812612837623851E-3</v>
       </c>
       <c r="F5" s="18">
         <v>2.6428466606790219E-5</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="31">
         <v>0.28329719884032989</v>
       </c>
       <c r="H5" s="17">
         <v>0.99992833421774951</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="31">
         <v>0.25938331966795891</v>
       </c>
       <c r="J5" s="17">
         <v>0.99992594301649629</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
       <c r="AG5"/>
       <c r="AH5"/>
       <c r="AI5"/>
@@ -1270,60 +1273,60 @@
       <c r="AO5"/>
     </row>
     <row r="6" spans="1:41" ht="15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="31">
         <v>6.5756160243996914E-2</v>
       </c>
       <c r="D6" s="18">
         <v>1.044223665878238E-2</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="31">
         <v>0.26430138359071043</v>
       </c>
       <c r="F6" s="17">
         <v>1.0284924019052E-2</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="31">
         <v>0.94436876082186005</v>
       </c>
       <c r="H6" s="17">
         <v>0.99116562519824902</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="31">
         <v>0.91598369214270836</v>
       </c>
       <c r="J6" s="17">
         <v>0.9711799227799226</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
       <c r="AG6"/>
       <c r="AH6"/>
       <c r="AI6"/>
@@ -1335,58 +1338,58 @@
       <c r="AO6"/>
     </row>
     <row r="7" spans="1:41" ht="15">
-      <c r="A7" s="26"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="31">
         <v>8.9067996617582211E-3</v>
       </c>
       <c r="D7" s="18">
         <v>1.9672266081401729E-16</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="31">
         <v>2.9982617189920419E-2</v>
       </c>
       <c r="F7" s="17">
         <v>2.0056248015825041E-2</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="31">
         <v>0.99246464056817729</v>
       </c>
       <c r="H7" s="17">
         <v>0.99999999999999989</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="31">
         <v>0.98030846250717429</v>
       </c>
       <c r="J7" s="17">
         <v>0.94379903872013438</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
       <c r="AG7"/>
       <c r="AH7"/>
       <c r="AI7"/>
@@ -1398,60 +1401,60 @@
       <c r="AO7"/>
     </row>
     <row r="8" spans="1:41" ht="15">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="31">
         <v>9.0912743414444469E-2</v>
       </c>
       <c r="D8" s="18">
         <v>0</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="31">
         <v>7.0272527511112117E-3</v>
       </c>
       <c r="F8" s="17">
         <v>6.0625992288500789E-2</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="31">
         <v>0.92308570703546278</v>
       </c>
       <c r="H8" s="17">
         <v>1</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="31">
         <v>0.4510853710853715</v>
       </c>
       <c r="J8" s="17">
         <v>0.83011583011583023</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
       <c r="AG8"/>
       <c r="AH8"/>
       <c r="AI8"/>
@@ -1463,60 +1466,60 @@
       <c r="AO8"/>
     </row>
     <row r="9" spans="1:41" ht="15">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="31">
         <v>1.0791111687133471E-2</v>
       </c>
       <c r="D9" s="17">
         <v>8.2671807666136986E-3</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="31">
         <v>0.1958893173055114</v>
       </c>
       <c r="F9" s="17">
         <v>1.448520299387617E-2</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="31">
         <v>0.99087046881938712</v>
       </c>
       <c r="H9" s="17">
         <v>0.99300577301275139</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="31">
         <v>0.96923552123552126</v>
       </c>
       <c r="J9" s="17">
         <v>0.9594100386100386</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
       <c r="AG9"/>
       <c r="AH9"/>
       <c r="AI9"/>
@@ -1528,37 +1531,37 @@
       <c r="AO9"/>
     </row>
     <row r="10" spans="1:41" ht="25.5">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>12.245699999999999</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>0</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>7.1466700000000003</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>11.289099999999999</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>0.82870100000000002</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21">
         <v>1</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>0.66888000000000003</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="20">
         <v>0.47695399999999999</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="28" t="s">
         <v>40</v>
       </c>
       <c r="L10" s="9"/>
@@ -1585,37 +1588,37 @@
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:41" ht="25.5">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>55.884900000000002</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>5.5100000000000001E-3</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>15.802</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>2.25092E-3</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>0.21825600000000001</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <v>0.99992300000000001</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>0.26786199999999999</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="20">
         <v>0.99989600000000001</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="29" t="s">
         <v>41</v>
       </c>
       <c r="L11" s="10"/>
@@ -1642,37 +1645,37 @@
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>9.6397600000000008</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>0.146038</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>5.1382199999999996</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>1.6258999999999999</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>0.86515500000000001</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <v>0.99795699999999998</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>0.76193599999999995</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="20">
         <v>0.92466899999999996</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="46" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="11"/>
@@ -1699,37 +1702,37 @@
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>70.585599999999999</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>30.534300000000002</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>40.718200000000003</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <v>13.3073</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>1.2616499999999999E-2</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>0.57279999999999998</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <v>-0.88655499999999998</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="20">
         <v>0.38340000000000002</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="44" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="6"/>
@@ -1756,37 +1759,37 @@
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>129.779</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>104.4558</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>73.026399999999995</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>63.390700000000002</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>-0.81540100000000004</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <v>-0.46110000000000001</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <v>-2.3834599999999999</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="20">
         <v>-1.9370240999999999</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="44" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="6"/>
@@ -2115,33 +2118,33 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="37" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2153,7 +2156,7 @@
       <c r="D3" s="18">
         <v>4.7381674038438374E-31</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="30">
         <v>9.8471499999999994E-30</v>
       </c>
       <c r="F3" s="18">
@@ -2187,21 +2190,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B765A16-167B-4FF7-A5FC-E73F34BA3604}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="37" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="37"/>
-    <col min="11" max="11" width="21" style="37" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="13.42578125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="34" customWidth="1"/>
+    <col min="3" max="10" width="9.140625" style="34"/>
+    <col min="11" max="11" width="21" style="34" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="38"/>
+      <c r="A1" s="35"/>
       <c r="B1" s="42" t="s">
         <v>45</v>
       </c>
@@ -2225,25 +2228,25 @@
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="13" t="s">
@@ -2251,37 +2254,37 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="38.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="32">
         <v>129.779</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="33">
         <v>104.4558</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="32">
         <v>73.026399999999995</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="33">
         <v>63.390700000000002</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="32">
         <v>-0.81540100000000004</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="33">
         <v>-0.46110000000000001</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="32">
         <v>-2.3834599999999999</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="33">
         <v>-1.9370240999999999</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="36" t="s">
         <v>23</v>
       </c>
     </row>
